--- a/有凤来仪四组/AVNB/AVLIST_21.xlsx
+++ b/有凤来仪四组/AVNB/AVLIST_21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8055"/>
+    <workbookView windowWidth="23940" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1618,16 +1618,16 @@
   <sheetPr/>
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="229.375" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="235.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
